--- a/Data_for_Analysis_of_Open_Data_and_Computational_Reproducibility_in_Registered_Reports_in_Psychology.xlsx
+++ b/Data_for_Analysis_of_Open_Data_and_Computational_Reproducibility_in_Registered_Reports_in_Psychology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\surfdrive\R\reproducing_registered_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5D646-CC10-4896-BFCC-8FBF334A5E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACEEFCA-FF73-415D-9A33-05925452B422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="606">
   <si>
     <t>variable</t>
   </si>
@@ -859,9 +859,6 @@
     <t xml:space="preserve">xlxs package not available for R version 3.5.1; Code is not well commented; Code says to skip section if outliers are not to be excluded, but it's not entirely clear where they want the reader to skip to (i guessed sto line 354); It's clear that there code isn't extremely reproducible (e.g., statements like "if you have changed anything about this code these values will be off, line 495); Because the code was not always well commented/organized, it was sometimes difficult to tell what the output meant, but often times the values would match up with what was reported in the manuscript. So it appears that the analyses are reproducible, but that the code commenting could be improved. </t>
   </si>
   <si>
-    <t>The results did not always line up with the results in the paper, so coded as FALSE</t>
-  </si>
-  <si>
     <t>10.1080/23743603.2017.1341186</t>
   </si>
   <si>
@@ -886,9 +883,6 @@
     <t>Had to rename their data file to "raw.data"; No code to reproduce their description of the gender and race composition of their sample (but were easily calculated with additional code); Small rounding error on p. 113, OR for aware vs. unaware is 0.888 in my R output; My R console is having trouble displaying the proportions of gamblers table, but this might be due to my custom settings</t>
   </si>
   <si>
-    <t>Required adding additional code, and we did not get the right output/histograms  (might be due to version or setting, which should have been provided). So coded as FALSE</t>
-  </si>
-  <si>
     <t>Kuppuraj 2018</t>
   </si>
   <si>
@@ -922,9 +916,6 @@
     <t>No code to reproduce the descriptives in Results, but was easy to write new code to find these values.</t>
   </si>
   <si>
-    <t>No code to reproduce the descriptives in Results, so coded as FALSE</t>
-  </si>
-  <si>
     <t>10.1080/23743603.2017.1378071</t>
   </si>
   <si>
@@ -1184,9 +1175,6 @@
   </si>
   <si>
     <t>R code only looks at meta-analytic result</t>
-  </si>
-  <si>
-    <t>R script runs, even though Pepijn had some difficulties with it, Nicholas managed to run it without issues, so coded as TRUE</t>
   </si>
   <si>
     <t>10.1027/1864-9335/a000189</t>
@@ -1826,7 +1814,52 @@
     <t xml:space="preserve">Same issue as Nick, "Error: object 'scoreNeur' not found". Can not find vig.txt. The analysis PDF files are nice, but the code is not fully reproducible. UPDATE: I did locate the vig.txt file (search the folder for it). The only remaining issue is the neurocism score, that is not computed and gives errors. </t>
   </si>
   <si>
-    <t xml:space="preserve">Pepijn originally coded it as largely being able to run the code - however, there were still errors, and thus coded as FALSE. Not all output was there (coded as 'partially' by Nicholas, but should be FALSE or TRUE, and because not all main results are reproducible, coded as FALSE. Very cose, and otherwise a very nice example. Pepijn originally coded the data as missing - after double checking, data was found. </t>
+    <t xml:space="preserve">I could not find or reproduce most of the values - not sure why, the total N worked, so it was not about the data exclusion code (I correctly skipped it, I think). In the end, at least the bootstrapped confidence intervals for the process macro were not included. Code ran, but it was unclear why the numbers did not line up perfectly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The results did not always line up with the results in the paper, so coded as FALSE. Nick noted the code could often be reproduced, but not always for the main results (Pepijn and Daniel), so coded FALSE, although it is probably close, and a good attempt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">needed to rename data file. Indeed rounding error in OR 0.888 to 0.88 instead of 0.89. Code is well annotated, nicely distinguishes confirmatory from exploratory code. Pepijn notes that 2 figures are not reproduced, but they are. Initially, this was coded as not reproducible, but it is. </t>
+  </si>
+  <si>
+    <t>I needed to place all text files in the folder of the analysis script. Ttest object needed to be printed but contained the t-test. Figure 1 is nicely reproducible in a pdf file. Results are not printed but object contain them. Nick noted descriptives were missing, but after souble check ,available in lines 149 and 150. So fully reproducible.</t>
+  </si>
+  <si>
+    <t>REPRODUCIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepijn originally coded it as largely being able to run the code - however, there were still errors, and thus coded as FALSE. Not all output was there (coded as 'partially' by Nicholas, but should be FALSE or TRUE, and because not all main results are reproducible, coded as FALSE. Very close, and otherwise a very nice example. Pepijn originally coded the data as missing - after double checking, data was found. </t>
+  </si>
+  <si>
+    <t>EXCLUDED</t>
+  </si>
+  <si>
+    <t>too complex to reproduce</t>
+  </si>
+  <si>
+    <t>no code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originally coded as requiring additional code, and we did not get the right output/histograms  (might be due to version or setting, which should have been provided). So coded as FALSE. But after double checking, and updating criteria for main analysis, the extra code describing the sample is not important, and figures reproduced. So coded as TRUE for final paper. </t>
+  </si>
+  <si>
+    <t>No code to reproduce the descriptives in Results, so coded as FALSE. UPDATE: After DL reproduced, code is in lines 149 and 150, so recoded as reproducible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R script runs, even though Pepijn had some difficulties with it, Nicholas managed to run it without issues. However, coded as false, because the R script is only for the meta-analytic result. There is no code for the SPSS files, and no way to go from the raw data to the reported results. This is my own paper, and it is not reproducible. </t>
+  </si>
+  <si>
+    <t>code errors</t>
+  </si>
+  <si>
+    <t>code missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short label indicating the main reason the code was judged to be not reproducible, either because code was missing, code gave errors, the code was too complex, </t>
+  </si>
+  <si>
+    <t>main_reason_not_reproducible</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2104,6 +2137,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,11 +2473,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ975"/>
+  <dimension ref="A1:AT975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2466,10 +2508,12 @@
     <col min="39" max="39" width="15.109375" customWidth="1"/>
     <col min="40" max="40" width="16.27734375" customWidth="1"/>
     <col min="41" max="41" width="20.71875" customWidth="1"/>
-    <col min="42" max="43" width="61.71875" customWidth="1"/>
+    <col min="42" max="42" width="61.71875" customWidth="1"/>
+    <col min="43" max="43" width="124.21875" customWidth="1"/>
+    <col min="44" max="44" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" customHeight="1">
+    <row r="1" spans="1:46" ht="15.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>2</v>
       </c>
@@ -2599,13 +2643,16 @@
       <c r="AQ1" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR1" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C2" s="53" t="b">
         <v>1</v>
@@ -2704,8 +2751,12 @@
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
-    </row>
-    <row r="3" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR2" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT2" s="61"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>150</v>
       </c>
@@ -2811,8 +2862,12 @@
       <c r="AQ3" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR3" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT3" s="61"/>
+    </row>
+    <row r="4" spans="1:46" ht="15.75" customHeight="1">
       <c r="A4" s="51" t="s">
         <v>204</v>
       </c>
@@ -2908,10 +2963,14 @@
         <v>234</v>
       </c>
       <c r="AQ4" s="23"/>
-    </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR4" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT4" s="61"/>
+    </row>
+    <row r="5" spans="1:46" ht="15.75" customHeight="1">
       <c r="A5" s="48" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>240</v>
@@ -2991,10 +3050,14 @@
       <c r="AQ5" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR5" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="AT5" s="61"/>
+    </row>
+    <row r="6" spans="1:46" ht="15.75" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>259</v>
@@ -3080,8 +3143,12 @@
       <c r="AQ6" s="30" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR6" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="AT6" s="61"/>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>264</v>
       </c>
@@ -3163,10 +3230,14 @@
       <c r="AQ7" s="30" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR7" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="AT7" s="61"/>
+    </row>
+    <row r="8" spans="1:46" ht="15.75" customHeight="1">
       <c r="A8" s="48" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>268</v>
@@ -3259,24 +3330,36 @@
       <c r="AH8" s="34">
         <v>35</v>
       </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
+      <c r="AI8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>35</v>
+      </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR8" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT8" s="59"/>
+    </row>
+    <row r="9" spans="1:46" ht="15.75" customHeight="1">
+      <c r="A9" s="51" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>276</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>277</v>
       </c>
       <c r="C9" s="53" t="b">
         <v>1</v>
@@ -3294,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="L9" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="M9" s="17" t="b">
         <v>0</v>
@@ -3330,13 +3413,13 @@
         <v>1</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U9" s="17" t="b">
         <v>1</v>
       </c>
       <c r="V9" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="35" t="b">
         <v>1</v>
@@ -3345,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z9" s="17">
         <v>10</v>
@@ -3361,29 +3444,41 @@
         <v>1</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH9" s="36">
         <v>60</v>
       </c>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
+      <c r="AI9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>30</v>
+      </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1">
+        <v>599</v>
+      </c>
+      <c r="AR9" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT9" s="61"/>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" customHeight="1">
       <c r="A10" s="48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="53" t="b">
         <v>1</v>
@@ -3401,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J10" s="12" t="b">
         <v>1</v>
@@ -3413,7 +3508,7 @@
         <v>181</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M10" s="12" t="b">
         <v>0</v>
@@ -3437,22 +3532,22 @@
         <v>1</v>
       </c>
       <c r="T10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="U10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="U10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>288</v>
       </c>
       <c r="Z10" s="32">
         <v>10</v>
@@ -3468,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AH10" s="34">
         <v>45</v>
@@ -3482,13 +3577,17 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
-    </row>
-    <row r="11" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR10" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT10" s="59"/>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" customHeight="1">
       <c r="A11" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="48" t="b">
         <v>1</v>
@@ -3497,7 +3596,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F11" s="12" t="b">
         <v>1</v>
@@ -3506,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>180</v>
@@ -3518,7 +3617,7 @@
         <v>181</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M11" s="12" t="b">
         <v>0</v>
@@ -3542,13 +3641,13 @@
         <v>1</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U11" s="16" t="b">
         <v>1</v>
       </c>
       <c r="V11" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="12" t="b">
         <v>0</v>
@@ -3557,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z11" s="32">
         <v>15</v>
@@ -3573,29 +3672,41 @@
         <v>1</v>
       </c>
       <c r="AG11" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH11" s="34">
         <v>30</v>
       </c>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
+      <c r="AI11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>25</v>
+      </c>
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
       <c r="AQ11" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" ht="15.75" customHeight="1">
+        <v>600</v>
+      </c>
+      <c r="AR11" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT11" s="61"/>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C12" s="53" t="b">
         <v>1</v>
@@ -3613,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" s="12" t="b">
         <v>1</v>
@@ -3625,7 +3736,7 @@
         <v>181</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M12" s="12" t="b">
         <v>0</v>
@@ -3649,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U12" s="12" t="b">
         <v>1</v>
@@ -3664,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Z12" s="32">
         <v>20</v>
@@ -3680,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AH12" s="34">
         <v>51</v>
@@ -3694,13 +3805,17 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
-    </row>
-    <row r="13" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR12" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT12" s="61"/>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" customHeight="1">
       <c r="A13" s="51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="53" t="b">
         <v>1</v>
@@ -3718,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J13" s="12" t="b">
         <v>1</v>
@@ -3730,7 +3845,7 @@
         <v>181</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M13" s="12" t="b">
         <v>1</v>
@@ -3754,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U13" s="12" t="b">
         <v>1</v>
@@ -3769,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z13" s="32">
         <v>25</v>
@@ -3785,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH13" s="34">
         <v>28</v>
@@ -3799,15 +3914,19 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="15.75" customHeight="1">
+        <v>306</v>
+      </c>
+      <c r="AR13" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT13" s="61"/>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" customHeight="1">
       <c r="A14" s="51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C14" s="48" t="b">
         <v>1</v>
@@ -3825,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J14" s="12" t="b">
         <v>1</v>
@@ -3861,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U14" s="12" t="b">
         <v>0</v>
@@ -3876,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z14" s="32">
         <v>15</v>
@@ -3892,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AH14" s="34">
         <v>26</v>
@@ -3906,13 +4025,17 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
-    </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR14" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT14" s="59"/>
+    </row>
+    <row r="15" spans="1:46" ht="15.75" customHeight="1">
       <c r="A15" s="48" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C15" s="53" t="b">
         <v>1</v>
@@ -3930,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J15" s="12" t="b">
         <v>1</v>
@@ -3942,7 +4065,7 @@
         <v>95</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M15" s="12" t="b">
         <v>0</v>
@@ -3966,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="U15" s="16" t="b">
         <v>0</v>
@@ -3981,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z15" s="32">
         <v>120</v>
@@ -3997,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AH15" s="34">
         <v>81</v>
@@ -4011,15 +4134,19 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="48" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" ht="15.75" customHeight="1">
+        <v>586</v>
+      </c>
+      <c r="AR15" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT15" s="59"/>
+    </row>
+    <row r="16" spans="1:46" ht="15.75" customHeight="1">
       <c r="A16" s="51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" s="53" t="b">
         <v>1</v>
@@ -4037,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J16" s="12" t="b">
         <v>1</v>
@@ -4071,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="U16" s="16" t="b">
         <v>1</v>
@@ -4086,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Z16" s="32">
         <v>20</v>
@@ -4099,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="AF16" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AH16" s="34">
         <v>30</v>
@@ -4116,13 +4243,17 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
-    </row>
-    <row r="17" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR16" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT16" s="61"/>
+    </row>
+    <row r="17" spans="1:46" ht="15.75" customHeight="1">
       <c r="A17" s="51" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C17" s="48" t="b">
         <v>1</v>
@@ -4140,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J17" s="12" t="b">
         <v>1</v>
@@ -4152,7 +4283,7 @@
         <v>181</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M17" s="12" t="b">
         <v>0</v>
@@ -4176,22 +4307,22 @@
         <v>1</v>
       </c>
       <c r="T17" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="U17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="U17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="Z17" s="32">
         <v>20</v>
@@ -4207,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AH17" s="34">
         <v>42</v>
@@ -4221,13 +4352,17 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
-    </row>
-    <row r="18" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR17" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT17" s="61"/>
+    </row>
+    <row r="18" spans="1:46" ht="15.75" customHeight="1">
       <c r="A18" s="51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C18" s="48" t="b">
         <v>1</v>
@@ -4245,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J18" s="12" t="b">
         <v>1</v>
@@ -4257,7 +4392,7 @@
         <v>181</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M18" s="12" t="b">
         <v>1</v>
@@ -4281,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="U18" s="12" t="b">
         <v>1</v>
@@ -4296,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z18" s="32">
         <v>25</v>
@@ -4312,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AH18" s="34">
         <v>10</v>
@@ -4326,13 +4461,17 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
-    </row>
-    <row r="19" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR18" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT18" s="61"/>
+    </row>
+    <row r="19" spans="1:46" ht="15.75" customHeight="1">
       <c r="A19" s="51" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C19" s="48" t="b">
         <v>1</v>
@@ -4350,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J19" s="12" t="b">
         <v>1</v>
@@ -4362,7 +4501,7 @@
         <v>181</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M19" s="12" t="b">
         <v>1</v>
@@ -4386,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U19" s="12" t="b">
         <v>1</v>
@@ -4401,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Z19" s="32">
         <v>17</v>
@@ -4414,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AH19" s="34">
         <v>40</v>
@@ -4429,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AL19" s="10">
         <v>30</v>
@@ -4439,15 +4578,19 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1">
+        <v>595</v>
+      </c>
+      <c r="AR19" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT19" s="59"/>
+    </row>
+    <row r="20" spans="1:46" ht="15.75" customHeight="1">
       <c r="A20" s="51" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C20" s="48" t="b">
         <v>1</v>
@@ -4465,10 +4608,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J20" s="12" t="b">
         <v>1</v>
@@ -4477,7 +4620,7 @@
         <v>95</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M20" s="12" t="b">
         <v>0</v>
@@ -4501,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="U20" s="12" t="b">
         <v>1</v>
@@ -4516,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z20" s="32">
         <v>25</v>
@@ -4532,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AH20" s="34">
         <v>25</v>
@@ -4544,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AL20" s="10">
         <v>10</v>
@@ -4554,13 +4697,17 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
-    </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1">
+      <c r="AR20" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT20" s="61"/>
+    </row>
+    <row r="21" spans="1:46" ht="15.75" customHeight="1">
       <c r="A21" s="51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C21" s="53" t="b">
         <v>1</v>
@@ -4569,7 +4716,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F21" s="12" t="b">
         <v>0</v>
@@ -4578,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J21" s="12" t="b">
         <v>1</v>
@@ -4590,46 +4737,46 @@
         <v>181</v>
       </c>
       <c r="L21" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="S21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="U21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="M21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="S21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="U21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="W21" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="Z21" s="32">
         <v>20</v>
@@ -4641,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AD21" s="32">
         <v>40</v>
@@ -4653,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH21" s="34">
         <v>3</v>
@@ -4667,15 +4814,19 @@
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
       <c r="AQ21" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1">
+        <v>363</v>
+      </c>
+      <c r="AR21" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT21" s="61"/>
+    </row>
+    <row r="22" spans="1:46" ht="15.75" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C22" s="53" t="b">
         <v>1</v>
@@ -4693,58 +4844,58 @@
         <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="M22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="S22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="U22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="M22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="S22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="U22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>372</v>
       </c>
       <c r="Z22" s="32">
         <v>5</v>
@@ -4753,10 +4904,10 @@
         <v>1</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC22" s="48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AD22" s="32">
         <v>20</v>
@@ -4768,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AH22" s="34">
         <v>10</v>
@@ -4782,15 +4933,19 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" ht="12.3">
+        <v>373</v>
+      </c>
+      <c r="AR22" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT22" s="61"/>
+    </row>
+    <row r="23" spans="1:46" ht="12.3">
       <c r="A23" s="51" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C23" s="48" t="b">
         <v>1</v>
@@ -4808,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>270</v>
@@ -4820,7 +4975,7 @@
         <v>181</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M23" s="12" t="b">
         <v>0</v>
@@ -4838,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S23" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U23" s="12" t="b">
         <v>1</v>
@@ -4859,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Z23" s="32">
         <v>3</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC23" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AD23" s="32">
         <v>10</v>
@@ -4883,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AH23" s="17">
         <v>4</v>
@@ -4897,15 +5052,19 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" ht="12.3">
+        <v>601</v>
+      </c>
+      <c r="AR23" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT23" s="59"/>
+    </row>
+    <row r="24" spans="1:46" ht="12.3">
       <c r="A24" s="51" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C24" s="53" t="b">
         <v>1</v>
@@ -4923,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>92</v>
@@ -4935,7 +5094,7 @@
         <v>181</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M24" s="12" t="b">
         <v>0</v>
@@ -4953,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S24" s="12" t="b">
         <v>1</v>
@@ -4972,19 +5131,19 @@
         <v>0</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Z24" s="32">
         <v>10</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AD24" s="32">
         <v>35</v>
@@ -5002,15 +5161,19 @@
       <c r="AO24" s="30"/>
       <c r="AP24" s="30"/>
       <c r="AQ24" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" ht="12.3">
+        <v>388</v>
+      </c>
+      <c r="AR24" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT24" s="59"/>
+    </row>
+    <row r="25" spans="1:46" ht="12.3">
       <c r="A25" s="51" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C25" s="53" t="b">
         <v>1</v>
@@ -5028,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="12" t="b">
@@ -5038,7 +5201,7 @@
         <v>181</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M25" s="12" t="b">
         <v>0</v>
@@ -5056,13 +5219,13 @@
         <v>1</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S25" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T25" s="31" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="U25" s="12" t="b">
         <v>1</v>
@@ -5077,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Z25" s="32">
         <v>20</v>
@@ -5089,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AD25" s="32">
         <v>35</v>
@@ -5107,13 +5270,17 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
-    </row>
-    <row r="26" spans="1:43" ht="12.3">
+      <c r="AR25" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT25" s="61"/>
+    </row>
+    <row r="26" spans="1:46" ht="12.3">
       <c r="A26" s="48" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C26" s="53" t="b">
         <v>1</v>
@@ -5131,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J26" s="12" t="b">
         <v>1</v>
@@ -5143,7 +5310,7 @@
         <v>181</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M26" s="12" t="b">
         <v>1</v>
@@ -5161,13 +5328,13 @@
         <v>1</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S26" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T26" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="U26" s="12" t="b">
         <v>1</v>
@@ -5182,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z26" s="32">
         <v>15</v>
@@ -5191,10 +5358,10 @@
         <v>1</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC26" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AD26" s="32">
         <v>20</v>
@@ -5212,15 +5379,19 @@
       <c r="AO26" s="30"/>
       <c r="AP26" s="30"/>
       <c r="AQ26" s="30" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" ht="12.3">
+        <v>401</v>
+      </c>
+      <c r="AR26" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT26" s="59"/>
+    </row>
+    <row r="27" spans="1:46" ht="12.3">
       <c r="A27" s="48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C27" s="53" t="b">
         <v>1</v>
@@ -5238,58 +5409,58 @@
         <v>1</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="M27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="S27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="U27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="M27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="S27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="U27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X27" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="Z27" s="32">
         <v>10</v>
@@ -5301,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AD27" s="32">
         <v>5</v>
@@ -5319,15 +5490,19 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" ht="12.3">
+        <v>410</v>
+      </c>
+      <c r="AR27" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT27" s="59"/>
+    </row>
+    <row r="28" spans="1:46" ht="12.3">
       <c r="A28" s="51" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C28" s="53" t="b">
         <v>1</v>
@@ -5345,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>92</v>
@@ -5357,7 +5532,7 @@
         <v>181</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M28" s="12" t="b">
         <v>1</v>
@@ -5375,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S28" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U28" s="16" t="b">
         <v>1</v>
@@ -5396,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Z28" s="32">
         <v>0</v>
@@ -5408,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AD28" s="32">
         <v>25</v>
@@ -5426,15 +5601,19 @@
       <c r="AO28" s="13"/>
       <c r="AP28" s="13"/>
       <c r="AQ28" s="13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" ht="12.3">
+        <v>417</v>
+      </c>
+      <c r="AR28" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT28" s="61"/>
+    </row>
+    <row r="29" spans="1:46" ht="12.3">
       <c r="A29" s="48" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C29" s="53" t="b">
         <v>1</v>
@@ -5452,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J29" s="12" t="b">
         <v>1</v>
@@ -5464,7 +5643,7 @@
         <v>181</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M29" s="12" t="b">
         <v>1</v>
@@ -5482,13 +5661,13 @@
         <v>1</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S29" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U29" s="16" t="b">
         <v>1</v>
@@ -5503,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z29" s="32">
         <v>15</v>
@@ -5515,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AD29" s="32">
         <v>20</v>
@@ -5533,15 +5712,19 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" ht="12.3">
+        <v>424</v>
+      </c>
+      <c r="AR29" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT29" s="61"/>
+    </row>
+    <row r="30" spans="1:46" ht="12.3">
       <c r="A30" s="48" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C30" s="48" t="b">
         <v>1</v>
@@ -5550,46 +5733,46 @@
         <v>73</v>
       </c>
       <c r="E30" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="F30" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="J30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="L30" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="F30" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="M30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="J30" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="M30" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="S30" s="38" t="b">
         <v>0</v>
@@ -5600,7 +5783,7 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Z30" s="32"/>
       <c r="AA30" s="10"/>
@@ -5623,16 +5806,20 @@
       </c>
       <c r="AO30" s="10"/>
       <c r="AP30" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ30" s="10"/>
-    </row>
-    <row r="31" spans="1:43" ht="12" customHeight="1">
+      <c r="AR30" s="61" t="s">
+        <v>596</v>
+      </c>
+      <c r="AT30" s="61"/>
+    </row>
+    <row r="31" spans="1:46" ht="12" customHeight="1">
       <c r="A31" s="51" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C31" s="53" t="b">
         <v>1</v>
@@ -5650,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>92</v>
@@ -5662,7 +5849,7 @@
         <v>181</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M31" s="12" t="b">
         <v>1</v>
@@ -5680,13 +5867,13 @@
         <v>1</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S31" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="U31" s="12" t="b">
         <v>1</v>
@@ -5701,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Z31" s="32">
         <v>30</v>
@@ -5710,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC31" s="58" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AD31" s="32">
         <v>30</v>
@@ -5731,15 +5918,19 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" ht="12.3">
+        <v>588</v>
+      </c>
+      <c r="AR31" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT31" s="59"/>
+    </row>
+    <row r="32" spans="1:46" ht="12.3">
       <c r="A32" s="51" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C32" s="48" t="b">
         <v>1</v>
@@ -5757,10 +5948,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J32" s="12" t="b">
         <v>1</v>
@@ -5769,7 +5960,7 @@
         <v>181</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M32" s="16" t="b">
         <v>1</v>
@@ -5787,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S32" s="12" t="b">
         <v>1</v>
@@ -5806,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Z32" s="32">
         <v>40</v>
@@ -5818,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AD32" s="17">
         <v>40</v>
@@ -5836,13 +6027,17 @@
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
-    </row>
-    <row r="33" spans="1:43" ht="12.3">
+      <c r="AR32" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT32" s="61"/>
+    </row>
+    <row r="33" spans="1:46" ht="12.3">
       <c r="A33" s="48" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C33" s="53" t="b">
         <v>1</v>
@@ -5860,10 +6055,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J33" s="12" t="b">
         <v>1</v>
@@ -5890,13 +6085,13 @@
         <v>1</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S33" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="U33" s="12" t="b">
         <v>1</v>
@@ -5911,19 +6106,19 @@
         <v>1</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Z33" s="32">
         <v>30</v>
       </c>
       <c r="AA33" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB33" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AD33" s="32">
         <v>25</v>
@@ -5941,15 +6136,19 @@
       <c r="AO33" s="30"/>
       <c r="AP33" s="30"/>
       <c r="AQ33" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" ht="12.3">
+        <v>453</v>
+      </c>
+      <c r="AR33" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT33" s="59"/>
+    </row>
+    <row r="34" spans="1:46" ht="12.3">
       <c r="A34" s="51" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C34" s="53" t="b">
         <v>1</v>
@@ -5967,10 +6166,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J34" s="12" t="b">
         <v>1</v>
@@ -5979,7 +6178,7 @@
         <v>181</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M34" s="12" t="b">
         <v>0</v>
@@ -5997,13 +6196,13 @@
         <v>1</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S34" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U34" s="16" t="b">
         <v>1</v>
@@ -6018,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z34" s="32">
         <v>25</v>
@@ -6030,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AD34" s="32">
         <v>25</v>
@@ -6048,15 +6247,19 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" ht="12.3">
+        <v>572</v>
+      </c>
+      <c r="AR34" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT34" s="61"/>
+    </row>
+    <row r="35" spans="1:46" ht="12.3">
       <c r="A35" s="51" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C35" s="53" t="b">
         <v>1</v>
@@ -6074,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>92</v>
@@ -6083,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M35" s="12" t="b">
         <v>1</v>
@@ -6104,13 +6307,13 @@
         <v>1</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S35" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T35" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="U35" s="12" t="b">
         <v>1</v>
@@ -6125,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Z35" s="32">
         <v>20</v>
@@ -6134,10 +6337,10 @@
         <v>1</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AD35" s="32">
         <v>30</v>
@@ -6155,13 +6358,17 @@
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
-    </row>
-    <row r="36" spans="1:43" ht="12.3">
+      <c r="AR35" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT35" s="61"/>
+    </row>
+    <row r="36" spans="1:46" ht="12.3">
       <c r="A36" s="51" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C36" s="53" t="b">
         <v>1</v>
@@ -6179,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>92</v>
@@ -6191,7 +6398,7 @@
         <v>181</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M36" s="12" t="b">
         <v>1</v>
@@ -6209,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S36" s="12" t="b">
         <v>1</v>
@@ -6228,19 +6435,19 @@
         <v>1</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Z36" s="32">
         <v>15</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB36" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AD36" s="32">
         <v>20</v>
@@ -6258,15 +6465,19 @@
       <c r="AO36" s="30"/>
       <c r="AP36" s="30"/>
       <c r="AQ36" s="30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" ht="12.3">
+        <v>471</v>
+      </c>
+      <c r="AR36" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT36" s="59"/>
+    </row>
+    <row r="37" spans="1:46" ht="12.3">
       <c r="A37" s="48" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C37" s="53" t="b">
         <v>1</v>
@@ -6284,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>92</v>
@@ -6296,7 +6507,7 @@
         <v>95</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M37" s="12" t="b">
         <v>1</v>
@@ -6314,19 +6525,19 @@
         <v>1</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S37" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T37" s="41" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="U37" s="42" t="b">
         <v>1</v>
       </c>
       <c r="V37" s="42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="12" t="b">
         <v>1</v>
@@ -6335,19 +6546,19 @@
         <v>1</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Z37" s="32">
         <v>10</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AD37" s="32">
         <v>20</v>
@@ -6365,15 +6576,19 @@
       <c r="AO37" s="30"/>
       <c r="AP37" s="30"/>
       <c r="AQ37" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" ht="12.3">
+        <v>478</v>
+      </c>
+      <c r="AR37" s="60" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT37" s="60"/>
+    </row>
+    <row r="38" spans="1:46" ht="12.3">
       <c r="A38" s="51" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C38" s="53" t="b">
         <v>1</v>
@@ -6391,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>92</v>
@@ -6403,7 +6618,7 @@
         <v>181</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M38" s="12" t="b">
         <v>0</v>
@@ -6421,13 +6636,13 @@
         <v>1</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S38" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="U38" s="12" t="b">
         <v>1</v>
@@ -6442,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Z38" s="32">
         <v>15</v>
@@ -6454,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AD38" s="32">
         <v>30</v>
@@ -6472,13 +6687,17 @@
       <c r="AO38" s="10"/>
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
-    </row>
-    <row r="39" spans="1:43" ht="12.3">
+      <c r="AR38" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT38" s="61"/>
+    </row>
+    <row r="39" spans="1:46" ht="12.3">
       <c r="A39" s="48" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C39" s="53" t="b">
         <v>1</v>
@@ -6496,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>92</v>
@@ -6508,7 +6727,7 @@
         <v>181</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M39" s="12" t="b">
         <v>0</v>
@@ -6526,13 +6745,13 @@
         <v>1</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S39" s="12" t="b">
         <v>1</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="U39" s="12" t="b">
         <v>1</v>
@@ -6547,19 +6766,19 @@
         <v>1</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Z39" s="32">
         <v>15</v>
       </c>
       <c r="AA39" s="44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB39" s="42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AD39" s="32">
         <v>25</v>
@@ -6577,15 +6796,19 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" ht="12.3">
+        <v>492</v>
+      </c>
+      <c r="AR39" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT39" s="61"/>
+    </row>
+    <row r="40" spans="1:46" ht="12.3">
       <c r="A40" s="48" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C40" s="53" t="b">
         <v>1</v>
@@ -6603,19 +6826,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J40" s="12" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M40" s="17" t="b">
         <v>0</v>
@@ -6633,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S40" s="12" t="b">
         <v>1</v>
@@ -6652,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Z40" s="17">
         <v>10</v>
@@ -6661,10 +6884,10 @@
         <v>1</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AD40" s="32">
         <v>40</v>
@@ -6682,15 +6905,19 @@
       <c r="AO40" s="30"/>
       <c r="AP40" s="30"/>
       <c r="AQ40" s="30" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" ht="12.3">
+        <v>501</v>
+      </c>
+      <c r="AR40" s="61" t="s">
+        <v>597</v>
+      </c>
+      <c r="AT40" s="61"/>
+    </row>
+    <row r="41" spans="1:46" ht="12.3">
       <c r="A41" s="51" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C41" s="53" t="b">
         <v>1</v>
@@ -6708,58 +6935,58 @@
         <v>1</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="J41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="M41" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="S41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="U41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="17" t="s">
         <v>508</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="J41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="M41" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="S41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T41" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="U41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X41" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="17" t="s">
-        <v>512</v>
       </c>
       <c r="Z41" s="32">
         <v>15</v>
@@ -6771,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AD41" s="32">
         <v>15</v>
@@ -6788,18 +7015,22 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AQ41" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" ht="12.3">
+        <v>511</v>
+      </c>
+      <c r="AR41" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT41" s="59"/>
+    </row>
+    <row r="42" spans="1:46" ht="12.3">
       <c r="A42" s="48" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C42" s="53" t="b">
         <v>1</v>
@@ -6822,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -6857,12 +7088,12 @@
       <c r="AP42" s="10"/>
       <c r="AQ42" s="10"/>
     </row>
-    <row r="43" spans="1:43" ht="12.3">
+    <row r="43" spans="1:46" ht="12.3">
       <c r="A43" s="48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C43" s="53" t="b">
         <v>1</v>
@@ -6885,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="17"/>
@@ -6920,12 +7151,12 @@
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
     </row>
-    <row r="44" spans="1:43" ht="12.3">
+    <row r="44" spans="1:46" ht="12.3">
       <c r="A44" s="48" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C44" s="48" t="b">
         <v>1</v>
@@ -6983,12 +7214,12 @@
       <c r="AP44" s="10"/>
       <c r="AQ44" s="10"/>
     </row>
-    <row r="45" spans="1:43" ht="12.3">
+    <row r="45" spans="1:46" ht="12.3">
       <c r="A45" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C45" s="53" t="b">
         <v>1</v>
@@ -7011,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -7046,12 +7277,12 @@
       <c r="AP45" s="10"/>
       <c r="AQ45" s="10"/>
     </row>
-    <row r="46" spans="1:43" ht="12.3">
+    <row r="46" spans="1:46" ht="12.3">
       <c r="A46" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C46" s="53" t="b">
         <v>1</v>
@@ -7060,7 +7291,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F46" s="12" t="b">
         <v>0</v>
@@ -7069,14 +7300,14 @@
         <v>1</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -7111,12 +7342,12 @@
       <c r="AP46" s="10"/>
       <c r="AQ46" s="10"/>
     </row>
-    <row r="47" spans="1:43" ht="12.3">
+    <row r="47" spans="1:46" ht="12.3">
       <c r="A47" s="48" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C47" s="53" t="b">
         <v>1</v>
@@ -7134,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J47" s="12" t="b">
         <v>1</v>
@@ -7146,7 +7377,7 @@
         <v>181</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M47" s="12" t="b">
         <v>1</v>
@@ -7190,12 +7421,12 @@
       <c r="AP47" s="10"/>
       <c r="AQ47" s="10"/>
     </row>
-    <row r="48" spans="1:43" ht="12.3">
+    <row r="48" spans="1:46" ht="12.3">
       <c r="A48" s="51" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C48" s="53" t="b">
         <v>1</v>
@@ -7218,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -7255,10 +7486,10 @@
     </row>
     <row r="49" spans="1:43" ht="12.3">
       <c r="A49" s="48" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C49" s="53" t="b">
         <v>1</v>
@@ -7281,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -7318,10 +7549,10 @@
     </row>
     <row r="50" spans="1:43" ht="12.3">
       <c r="A50" s="51" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C50" s="53" t="b">
         <v>1</v>
@@ -7339,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>92</v>
@@ -7348,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M50" s="12" t="b">
         <v>1</v>
@@ -7397,10 +7628,10 @@
     </row>
     <row r="51" spans="1:43" ht="12.3">
       <c r="A51" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C51" s="48" t="b">
         <v>1</v>
@@ -7423,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -7460,10 +7691,10 @@
     </row>
     <row r="52" spans="1:43" ht="12.3">
       <c r="A52" s="51" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C52" s="48" t="b">
         <v>1</v>
@@ -7486,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -7523,10 +7754,10 @@
     </row>
     <row r="53" spans="1:43" ht="12.3">
       <c r="A53" s="51" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C53" s="53" t="b">
         <v>1</v>
@@ -7549,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -7586,10 +7817,10 @@
     </row>
     <row r="54" spans="1:43" ht="12.3">
       <c r="A54" s="51" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C54" s="48" t="b">
         <v>1</v>
@@ -7612,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -7649,10 +7880,10 @@
     </row>
     <row r="55" spans="1:43" ht="12.3">
       <c r="A55" s="51" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C55" s="53" t="b">
         <v>1</v>
@@ -7675,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -7712,10 +7943,10 @@
     </row>
     <row r="56" spans="1:43" ht="12.3">
       <c r="A56" s="48" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C56" s="48" t="b">
         <v>1</v>
@@ -7738,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -7775,10 +8006,10 @@
     </row>
     <row r="57" spans="1:43" ht="12.3">
       <c r="A57" s="51" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C57" s="48" t="b">
         <v>1</v>
@@ -7801,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -7838,10 +8069,10 @@
     </row>
     <row r="58" spans="1:43" ht="12.3">
       <c r="A58" s="51" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C58" s="53" t="b">
         <v>1</v>
@@ -7859,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>92</v>
@@ -7871,7 +8102,7 @@
         <v>181</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M58" s="17" t="b">
         <v>1</v>
@@ -7917,10 +8148,10 @@
     </row>
     <row r="59" spans="1:43" ht="12.3">
       <c r="A59" s="51" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C59" s="48" t="b">
         <v>1</v>
@@ -7943,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -7980,10 +8211,10 @@
     </row>
     <row r="60" spans="1:43" ht="12.3">
       <c r="A60" s="48" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C60" s="53" t="b">
         <v>1</v>
@@ -8006,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -8043,10 +8274,10 @@
     </row>
     <row r="61" spans="1:43" ht="12.3">
       <c r="A61" s="51" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C61" s="53" t="b">
         <v>1</v>
@@ -8064,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>92</v>
@@ -8120,10 +8351,10 @@
     </row>
     <row r="62" spans="1:43" ht="12.3">
       <c r="A62" s="51" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C62" s="48" t="b">
         <v>1</v>
@@ -8146,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -8183,10 +8414,10 @@
     </row>
     <row r="63" spans="1:43" ht="12.3">
       <c r="A63" s="51" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C63" s="57" t="b">
         <v>1</v>
@@ -8204,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>92</v>
@@ -8213,10 +8444,10 @@
         <v>1</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M63" s="12" t="b">
         <v>1</v>
@@ -11278,10 +11509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="G35" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11335,7 +11566,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -11447,7 +11678,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.8">
@@ -11607,7 +11838,15 @@
         <v>61</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>574</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/Data_for_Analysis_of_Open_Data_and_Computational_Reproducibility_in_Registered_Reports_in_Psychology.xlsx
+++ b/Data_for_Analysis_of_Open_Data_and_Computational_Reproducibility_in_Registered_Reports_in_Psychology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\surfdrive\R\reproducing_registered_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACEEFCA-FF73-415D-9A33-05925452B422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123DCB05-12EE-4DD2-89B6-8876BD5C1562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1866,7 +1866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1970,6 +1970,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2119,7 +2124,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2147,6 +2151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2475,9 +2480,9 @@
   </sheetPr>
   <dimension ref="A1:AT975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2514,7 +2519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2654,7 +2659,7 @@
       <c r="B2" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="53" t="b">
+      <c r="C2" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -2751,10 +2756,10 @@
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
-      <c r="AR2" s="61" t="s">
+      <c r="AR2" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT2" s="61"/>
+      <c r="AT2" s="60"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1">
       <c r="A3" s="48" t="s">
@@ -2763,7 +2768,7 @@
       <c r="B3" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="53" t="b">
+      <c r="C3" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="48" t="s">
@@ -2862,13 +2867,13 @@
       <c r="AQ3" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AR3" s="61" t="s">
+      <c r="AR3" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT3" s="61"/>
+      <c r="AT3" s="60"/>
     </row>
     <row r="4" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -2963,10 +2968,10 @@
         <v>234</v>
       </c>
       <c r="AQ4" s="23"/>
-      <c r="AR4" s="61" t="s">
+      <c r="AR4" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT4" s="61"/>
+      <c r="AT4" s="60"/>
     </row>
     <row r="5" spans="1:46" ht="15.75" customHeight="1">
       <c r="A5" s="48" t="s">
@@ -2975,7 +2980,7 @@
       <c r="B5" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="53" t="b">
+      <c r="C5" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="48" t="s">
@@ -3050,10 +3055,10 @@
       <c r="AQ5" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="AR5" s="61" t="s">
+      <c r="AR5" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="AT5" s="61"/>
+      <c r="AT5" s="60"/>
     </row>
     <row r="6" spans="1:46" ht="15.75" customHeight="1">
       <c r="A6" s="48" t="s">
@@ -3062,7 +3067,7 @@
       <c r="B6" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="53" t="b">
+      <c r="C6" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="48" t="s">
@@ -3143,13 +3148,13 @@
       <c r="AQ6" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AR6" s="61" t="s">
+      <c r="AR6" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="AT6" s="61"/>
+      <c r="AT6" s="60"/>
     </row>
     <row r="7" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>264</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -3230,10 +3235,10 @@
       <c r="AQ7" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AR7" s="61" t="s">
+      <c r="AR7" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="AT7" s="61"/>
+      <c r="AT7" s="60"/>
     </row>
     <row r="8" spans="1:46" ht="15.75" customHeight="1">
       <c r="A8" s="48" t="s">
@@ -3242,7 +3247,7 @@
       <c r="B8" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="53" t="b">
+      <c r="C8" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -3349,19 +3354,19 @@
       <c r="AQ8" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="AR8" s="59" t="s">
+      <c r="AR8" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT8" s="59"/>
+      <c r="AT8" s="58"/>
     </row>
     <row r="9" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>275</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="53" t="b">
+      <c r="C9" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -3468,10 +3473,10 @@
       <c r="AQ9" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="AR9" s="61" t="s">
+      <c r="AR9" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT9" s="61"/>
+      <c r="AT9" s="60"/>
     </row>
     <row r="10" spans="1:46" ht="15.75" customHeight="1">
       <c r="A10" s="48" t="s">
@@ -3480,7 +3485,7 @@
       <c r="B10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="53" t="b">
+      <c r="C10" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -3577,13 +3582,13 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
-      <c r="AR10" s="59" t="s">
+      <c r="AR10" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT10" s="59"/>
+      <c r="AT10" s="58"/>
     </row>
     <row r="11" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>288</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -3696,10 +3701,10 @@
       <c r="AQ11" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="AR11" s="61" t="s">
+      <c r="AR11" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="60"/>
     </row>
     <row r="12" spans="1:46" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
@@ -3708,7 +3713,7 @@
       <c r="B12" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="53" t="b">
+      <c r="C12" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="48" t="s">
@@ -3805,19 +3810,19 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
-      <c r="AR12" s="61" t="s">
+      <c r="AR12" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT12" s="61"/>
+      <c r="AT12" s="60"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>300</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="53" t="b">
+      <c r="C13" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -3916,13 +3921,13 @@
       <c r="AQ13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AR13" s="61" t="s">
+      <c r="AR13" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT13" s="61"/>
+      <c r="AT13" s="60"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>307</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -4025,10 +4030,10 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
-      <c r="AR14" s="59" t="s">
+      <c r="AR14" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT14" s="59"/>
+      <c r="AT14" s="58"/>
     </row>
     <row r="15" spans="1:46" ht="15.75" customHeight="1">
       <c r="A15" s="48" t="s">
@@ -4037,7 +4042,7 @@
       <c r="B15" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="53" t="b">
+      <c r="C15" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -4136,19 +4141,19 @@
       <c r="AQ15" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="AR15" s="59" t="s">
+      <c r="AR15" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT15" s="59"/>
+      <c r="AT15" s="58"/>
     </row>
     <row r="16" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>320</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="53" t="b">
+      <c r="C16" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="48" t="s">
@@ -4243,13 +4248,13 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
-      <c r="AR16" s="61" t="s">
+      <c r="AR16" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT16" s="61"/>
+      <c r="AT16" s="60"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>327</v>
       </c>
       <c r="B17" s="48" t="s">
@@ -4352,13 +4357,13 @@
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
-      <c r="AR17" s="61" t="s">
+      <c r="AR17" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT17" s="61"/>
+      <c r="AT17" s="60"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>334</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -4461,13 +4466,13 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
-      <c r="AR18" s="61" t="s">
+      <c r="AR18" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT18" s="61"/>
+      <c r="AT18" s="60"/>
     </row>
     <row r="19" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>340</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -4580,13 +4585,13 @@
       <c r="AQ19" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="AR19" s="59" t="s">
+      <c r="AR19" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT19" s="59"/>
+      <c r="AT19" s="58"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>346</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4595,7 +4600,7 @@
       <c r="C20" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="48" t="s">
@@ -4697,19 +4702,19 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
-      <c r="AR20" s="61" t="s">
+      <c r="AR20" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT20" s="61"/>
+      <c r="AT20" s="60"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>352</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="53" t="b">
+      <c r="C21" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -4816,10 +4821,10 @@
       <c r="AQ21" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="AR21" s="61" t="s">
+      <c r="AR21" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT21" s="61"/>
+      <c r="AT21" s="60"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" customHeight="1">
       <c r="A22" s="48" t="s">
@@ -4828,7 +4833,7 @@
       <c r="B22" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="53" t="b">
+      <c r="C22" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="48" t="s">
@@ -4935,13 +4940,13 @@
       <c r="AQ22" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AR22" s="61" t="s">
+      <c r="AR22" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT22" s="61"/>
+      <c r="AT22" s="60"/>
     </row>
     <row r="23" spans="1:46" ht="12.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>374</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -5054,19 +5059,19 @@
       <c r="AQ23" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="AR23" s="59" t="s">
+      <c r="AR23" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT23" s="59"/>
+      <c r="AT23" s="58"/>
     </row>
     <row r="24" spans="1:46" ht="12.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>381</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="53" t="b">
+      <c r="C24" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="48" t="s">
@@ -5163,19 +5168,19 @@
       <c r="AQ24" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="AR24" s="59" t="s">
+      <c r="AR24" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT24" s="59"/>
+      <c r="AT24" s="58"/>
     </row>
     <row r="25" spans="1:46" ht="12.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>389</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C25" s="53" t="b">
+      <c r="C25" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="48" t="s">
@@ -5270,10 +5275,10 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
-      <c r="AR25" s="61" t="s">
+      <c r="AR25" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT25" s="61"/>
+      <c r="AT25" s="60"/>
     </row>
     <row r="26" spans="1:46" ht="12.3">
       <c r="A26" s="48" t="s">
@@ -5282,7 +5287,7 @@
       <c r="B26" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="C26" s="53" t="b">
+      <c r="C26" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -5381,10 +5386,10 @@
       <c r="AQ26" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="AR26" s="59" t="s">
+      <c r="AR26" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT26" s="59"/>
+      <c r="AT26" s="58"/>
     </row>
     <row r="27" spans="1:46" ht="12.3">
       <c r="A27" s="48" t="s">
@@ -5393,13 +5398,13 @@
       <c r="B27" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="C27" s="53" t="b">
+      <c r="C27" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>242</v>
       </c>
       <c r="F27" s="12" t="b">
@@ -5492,19 +5497,19 @@
       <c r="AQ27" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AR27" s="59" t="s">
+      <c r="AR27" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT27" s="59"/>
+      <c r="AT27" s="58"/>
     </row>
     <row r="28" spans="1:46" ht="12.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>411</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C28" s="53" t="b">
+      <c r="C28" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5603,10 +5608,10 @@
       <c r="AQ28" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="AR28" s="61" t="s">
+      <c r="AR28" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT28" s="61"/>
+      <c r="AT28" s="60"/>
     </row>
     <row r="29" spans="1:46" ht="12.3">
       <c r="A29" s="48" t="s">
@@ -5615,7 +5620,7 @@
       <c r="B29" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="53" t="b">
+      <c r="C29" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -5714,10 +5719,10 @@
       <c r="AQ29" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AR29" s="61" t="s">
+      <c r="AR29" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT29" s="61"/>
+      <c r="AT29" s="60"/>
     </row>
     <row r="30" spans="1:46" ht="12.3">
       <c r="A30" s="48" t="s">
@@ -5809,19 +5814,19 @@
         <v>434</v>
       </c>
       <c r="AQ30" s="10"/>
-      <c r="AR30" s="61" t="s">
+      <c r="AR30" s="60" t="s">
         <v>596</v>
       </c>
-      <c r="AT30" s="61"/>
+      <c r="AT30" s="60"/>
     </row>
     <row r="31" spans="1:46" ht="12" customHeight="1">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>435</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="C31" s="53" t="b">
+      <c r="C31" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -5899,7 +5904,7 @@
       <c r="AB31" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AC31" s="58" t="s">
+      <c r="AC31" s="57" t="s">
         <v>587</v>
       </c>
       <c r="AD31" s="32">
@@ -5920,13 +5925,13 @@
       <c r="AQ31" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="AR31" s="59" t="s">
+      <c r="AR31" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT31" s="59"/>
+      <c r="AT31" s="58"/>
     </row>
     <row r="32" spans="1:46" ht="12.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>440</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -6027,10 +6032,10 @@
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
       <c r="AQ32" s="10"/>
-      <c r="AR32" s="61" t="s">
+      <c r="AR32" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT32" s="61"/>
+      <c r="AT32" s="60"/>
     </row>
     <row r="33" spans="1:46" ht="12.3">
       <c r="A33" s="48" t="s">
@@ -6039,7 +6044,7 @@
       <c r="B33" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="C33" s="53" t="b">
+      <c r="C33" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -6138,19 +6143,19 @@
       <c r="AQ33" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="AR33" s="59" t="s">
+      <c r="AR33" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT33" s="59"/>
+      <c r="AT33" s="58"/>
     </row>
     <row r="34" spans="1:46" ht="12.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>454</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="C34" s="53" t="b">
+      <c r="C34" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="48" t="s">
@@ -6249,19 +6254,19 @@
       <c r="AQ34" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="AR34" s="61" t="s">
+      <c r="AR34" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT34" s="61"/>
+      <c r="AT34" s="60"/>
     </row>
     <row r="35" spans="1:46" ht="12.3">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>460</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="C35" s="53" t="b">
+      <c r="C35" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -6358,19 +6363,19 @@
       <c r="AO35" s="10"/>
       <c r="AP35" s="10"/>
       <c r="AQ35" s="10"/>
-      <c r="AR35" s="61" t="s">
+      <c r="AR35" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT35" s="61"/>
+      <c r="AT35" s="60"/>
     </row>
     <row r="36" spans="1:46" ht="12.3">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>466</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="C36" s="53" t="b">
+      <c r="C36" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="48" t="s">
@@ -6467,10 +6472,10 @@
       <c r="AQ36" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="AR36" s="59" t="s">
+      <c r="AR36" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="AT36" s="59"/>
+      <c r="AT36" s="58"/>
     </row>
     <row r="37" spans="1:46" ht="12.3">
       <c r="A37" s="48" t="s">
@@ -6479,7 +6484,7 @@
       <c r="B37" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="C37" s="53" t="b">
+      <c r="C37" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="48" t="s">
@@ -6578,19 +6583,19 @@
       <c r="AQ37" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="AR37" s="60" t="s">
+      <c r="AR37" s="59" t="s">
         <v>603</v>
       </c>
-      <c r="AT37" s="60"/>
+      <c r="AT37" s="59"/>
     </row>
     <row r="38" spans="1:46" ht="12.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>479</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C38" s="53" t="b">
+      <c r="C38" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="48" t="s">
@@ -6687,10 +6692,10 @@
       <c r="AO38" s="10"/>
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
-      <c r="AR38" s="61" t="s">
+      <c r="AR38" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT38" s="61"/>
+      <c r="AT38" s="60"/>
     </row>
     <row r="39" spans="1:46" ht="12.3">
       <c r="A39" s="48" t="s">
@@ -6699,7 +6704,7 @@
       <c r="B39" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C39" s="53" t="b">
+      <c r="C39" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -6798,10 +6803,10 @@
       <c r="AQ39" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="AR39" s="61" t="s">
+      <c r="AR39" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="AT39" s="61"/>
+      <c r="AT39" s="60"/>
     </row>
     <row r="40" spans="1:46" ht="12.3">
       <c r="A40" s="48" t="s">
@@ -6810,7 +6815,7 @@
       <c r="B40" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="C40" s="53" t="b">
+      <c r="C40" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="48" t="s">
@@ -6907,19 +6912,19 @@
       <c r="AQ40" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="AR40" s="61" t="s">
+      <c r="AR40" s="60" t="s">
         <v>597</v>
       </c>
-      <c r="AT40" s="61"/>
+      <c r="AT40" s="60"/>
     </row>
     <row r="41" spans="1:46" ht="12.3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="50" t="s">
         <v>502</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="53" t="b">
+      <c r="C41" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="48" t="s">
@@ -7020,10 +7025,10 @@
       <c r="AQ41" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AR41" s="59" t="s">
+      <c r="AR41" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="AT41" s="59"/>
+      <c r="AT41" s="58"/>
     </row>
     <row r="42" spans="1:46" ht="12.3">
       <c r="A42" s="48" t="s">
@@ -7032,7 +7037,7 @@
       <c r="B42" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="C42" s="53" t="b">
+      <c r="C42" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="48" t="s">
@@ -7095,7 +7100,7 @@
       <c r="B43" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="C43" s="53" t="b">
+      <c r="C43" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="48" t="s">
@@ -7221,7 +7226,7 @@
       <c r="B45" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="C45" s="53" t="b">
+      <c r="C45" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="48" t="s">
@@ -7284,7 +7289,7 @@
       <c r="B46" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="C46" s="53" t="b">
+      <c r="C46" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="48" t="s">
@@ -7349,7 +7354,7 @@
       <c r="B47" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C47" s="53" t="b">
+      <c r="C47" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -7422,13 +7427,13 @@
       <c r="AQ47" s="10"/>
     </row>
     <row r="48" spans="1:46" ht="12.3">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="50" t="s">
         <v>526</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>527</v>
       </c>
-      <c r="C48" s="53" t="b">
+      <c r="C48" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="48" t="s">
@@ -7491,7 +7496,7 @@
       <c r="B49" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="C49" s="53" t="b">
+      <c r="C49" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="48" t="s">
@@ -7548,13 +7553,13 @@
       <c r="AQ49" s="10"/>
     </row>
     <row r="50" spans="1:43" ht="12.3">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="50" t="s">
         <v>530</v>
       </c>
       <c r="B50" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="C50" s="53" t="b">
+      <c r="C50" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="48" t="s">
@@ -7690,7 +7695,7 @@
       <c r="AQ51" s="10"/>
     </row>
     <row r="52" spans="1:43" ht="12.3">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="50" t="s">
         <v>537</v>
       </c>
       <c r="B52" s="48" t="s">
@@ -7753,13 +7758,13 @@
       <c r="AQ52" s="10"/>
     </row>
     <row r="53" spans="1:43" ht="12.3">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="50" t="s">
         <v>540</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>541</v>
       </c>
-      <c r="C53" s="53" t="b">
+      <c r="C53" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -7816,7 +7821,7 @@
       <c r="AQ53" s="10"/>
     </row>
     <row r="54" spans="1:43" ht="12.3">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>543</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -7879,13 +7884,13 @@
       <c r="AQ54" s="10"/>
     </row>
     <row r="55" spans="1:43" ht="12.3">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="50" t="s">
         <v>545</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="C55" s="53" t="b">
+      <c r="C55" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="48" t="s">
@@ -8005,7 +8010,7 @@
       <c r="AQ56" s="10"/>
     </row>
     <row r="57" spans="1:43" ht="12.3">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>549</v>
       </c>
       <c r="B57" s="48" t="s">
@@ -8068,13 +8073,13 @@
       <c r="AQ57" s="10"/>
     </row>
     <row r="58" spans="1:43" ht="12.3">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="50" t="s">
         <v>551</v>
       </c>
       <c r="B58" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="C58" s="53" t="b">
+      <c r="C58" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="48" t="s">
@@ -8147,7 +8152,7 @@
       <c r="AQ58" s="10"/>
     </row>
     <row r="59" spans="1:43" ht="12.3">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="50" t="s">
         <v>555</v>
       </c>
       <c r="B59" s="48" t="s">
@@ -8216,7 +8221,7 @@
       <c r="B60" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="C60" s="53" t="b">
+      <c r="C60" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="48" t="s">
@@ -8273,13 +8278,13 @@
       <c r="AQ60" s="10"/>
     </row>
     <row r="61" spans="1:43" ht="12.3">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="50" t="s">
         <v>560</v>
       </c>
       <c r="B61" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="C61" s="53" t="b">
+      <c r="C61" s="52" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="48" t="s">
@@ -8350,7 +8355,7 @@
       <c r="AQ61" s="10"/>
     </row>
     <row r="62" spans="1:43" ht="12.3">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="50" t="s">
         <v>563</v>
       </c>
       <c r="B62" s="48" t="s">
@@ -8413,13 +8418,13 @@
       <c r="AQ62" s="10"/>
     </row>
     <row r="63" spans="1:43" ht="12.3">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="50" t="s">
         <v>565</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="C63" s="57" t="b">
+      <c r="C63" s="56" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="48" t="s">
@@ -8494,7 +8499,7 @@
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:43" ht="13.8">
-      <c r="A65" s="52" t="b">
+      <c r="A65" s="51" t="b">
         <v>1</v>
       </c>
       <c r="B65" s="46"/>
@@ -8592,7 +8597,7 @@
       <c r="AQ65" s="10"/>
     </row>
     <row r="66" spans="1:43" ht="13.8">
-      <c r="A66" s="52" t="b">
+      <c r="A66" s="51" t="b">
         <v>0</v>
       </c>
       <c r="B66" s="46"/>
